--- a/biology/Botanique/Jonathan_Carl_Zenker/Jonathan_Carl_Zenker.xlsx
+++ b/biology/Botanique/Jonathan_Carl_Zenker/Jonathan_Carl_Zenker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jonathan Carl Zenker[1] est un naturaliste allemand (tant botaniste que zoologiste) né le 1er mars 1799 à Sundremda (Saalfeld-Rudolstadt) et décédé le 6 novembre 1837 à Leipzig.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonathan Carl Zenker est un naturaliste allemand (tant botaniste que zoologiste) né le 1er mars 1799 à Sundremda (Saalfeld-Rudolstadt) et décédé le 6 novembre 1837 à Leipzig.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de théologie à l'université d'Iéna. Il poursuit par des études de médecine et de chirurgie. Il passe son doctorat de médecine sur la base de sa thèse Batrachomyologia. En 1828, il devient professeur de botanique et d'histoire naturelle à la faculté de Philosophie de l'université d'Iéna. En 1933, il est nommé à la Kaiserlich Leopoldinisch-Carolinische Deutsche Akademie der Naturwissenschaftler (Académie impériale Léopold-Carol de Sciences Naturelles - Leopoldina) de Halle. En 1836, il devient professeur en titre à la faculté de médecine d'Iéna.
 Son travail couvre un champ particulièrement vaste : outre la botanique, il s'est intéressé à la zoologie, à la paléontologie et à la parasitologie.
@@ -543,7 +557,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>avec David Nathanael Friedrich Dietrich (1799-1888) - Musci Thuringici: vivis exemplaribus exhibuerunt et illustraverunt, 1821–1823
 Parasitae corporis humani internae seu vermes intestinales hominis - Leipzig, 1827
@@ -582,7 +598,9 @@
           <t>Dédicaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un genre de la famille des Poacées, Zenkeria, lui a été dédié (ainsi que deux genres homonymes illégaux des familles des Fabacées et des Bignoniacées. Plus de deux cents espèces de plantes lui ont été dédiées, telles que Anisotes zenkeri ou Pierrina zenkeri, ainsi que de nombreuses espèces d'animaux dont l'écureuil volant de Zenker - Idiurus zenkeri.
 </t>
